--- a/ITI/mCSD/3.4.0/StructureDefinition-IHE.mCSD.OrganizationHierarchy.xlsx
+++ b/ITI/mCSD/3.4.0/StructureDefinition-IHE.mCSD.OrganizationHierarchy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-08T12:39:43-06:00</t>
+    <t>2022-01-10T13:59:33-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/mCSD/3.4.0/StructureDefinition-IHE.mCSD.OrganizationHierarchy.xlsx
+++ b/ITI/mCSD/3.4.0/StructureDefinition-IHE.mCSD.OrganizationHierarchy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T13:59:33-06:00</t>
+    <t>2022-01-10T15:12:20-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
